--- a/nop-cli/demo/_vfs/batch/demo-card.xpt.xlsx
+++ b/nop-cli/demo/_vfs/batch/demo-card.xpt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162AA8FB-1198-4E1C-B81C-5FBFC5B3053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59D813C-8887-4E2E-AA7C-A0491C9030AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author>u</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{6D3A1EC3-2D89-4ABE-827B-DEFA6743ACEB}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{6D3A1EC3-2D89-4ABE-827B-DEFA6743ACEB}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>循环变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,10 @@
    // 每个sheet页20万行
    return rs.toMapInput().chunkIterator(200000)
 &lt;/c:script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${title}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -231,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,43 +519,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -559,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714B9DAD-BFB0-45B3-9AF3-BD962D201665}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
